--- a/ILUM/Result/electrical_lab_result.xlsx
+++ b/ILUM/Result/electrical_lab_result.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">percentile</t>
+    <t xml:space="preserve">electrical_lab_percentile</t>
   </si>
   <si>
     <t xml:space="preserve">Kaiser Foundation Hospitals (CA)</t>
